--- a/player_d_dash/defense-dash-3pt_SeasonType_Playoffs_Season_2018-19.xlsx
+++ b/player_d_dash/defense-dash-3pt_SeasonType_Playoffs_Season_2018-19.xlsx
@@ -974,22 +974,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>58.9%</t>
+          <t>42.3%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>17.7</t>
         </is>
       </c>
     </row>
@@ -1039,22 +1039,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>58.9%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1084,17 +1084,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -1299,42 +1299,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>39.3%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1344,17 +1344,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>-8.3</t>
         </is>
       </c>
     </row>
@@ -1364,42 +1364,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>39.3%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-8.3</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Dennis Schroder</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>26.8%</t>
+          <t>40.6%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -1884,42 +1884,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dennis Schroder</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>40.6%</t>
+          <t>27.0%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-5.1</t>
         </is>
       </c>
     </row>
@@ -1949,17 +1949,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1969,22 +1969,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>26.8%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1994,17 +1994,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -2469,42 +2469,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jae Crowder</t>
+          <t>Eric Bledsoe</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>44.6%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -2534,42 +2534,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Eric Bledsoe</t>
+          <t>Jae Crowder</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>44.6%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -2664,17 +2664,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2684,22 +2684,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>43.4%</t>
+          <t>47.1%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>9.2</t>
         </is>
       </c>
     </row>
@@ -2794,17 +2794,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2814,22 +2814,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>47.1%</t>
+          <t>43.4%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Terrance Ferguson</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3324,12 +3324,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>41.1%</t>
+          <t>26.4%</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>34.7</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>13.1</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Terrance Ferguson</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>26.4%</t>
+          <t>41.1%</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>34.7</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -4094,17 +4094,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Michael Carter-Williams</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4124,12 +4124,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>44.7%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-7.3</t>
+          <t>-14.2</t>
         </is>
       </c>
     </row>
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Michael Carter-Williams</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4189,12 +4189,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>44.7%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4204,17 +4204,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-14.2</t>
+          <t>-7.3</t>
         </is>
       </c>
     </row>
@@ -4614,17 +4614,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Reggie Jackson</t>
+          <t>Lou Williams</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4634,22 +4634,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>41.4%</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>6.8</t>
         </is>
       </c>
     </row>
@@ -4679,17 +4679,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>34.7%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>13.5</t>
         </is>
       </c>
     </row>
@@ -4809,42 +4809,42 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lou Williams</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>-14.3</t>
         </is>
       </c>
     </row>
@@ -4874,22 +4874,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Reggie Jackson</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>30.8%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4919,17 +4919,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>-7.6</t>
         </is>
       </c>
     </row>
@@ -4939,42 +4939,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>19.4%</t>
+          <t>34.7%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4984,17 +4984,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>-14.3</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>JaMychal Green</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5014,12 +5014,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>31.5%</t>
+          <t>48.9%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>15.9</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JaMychal Green</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5079,12 +5079,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>48.9%</t>
+          <t>31.5%</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>40.8</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -5329,42 +5329,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Serge Ibaka</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -5394,42 +5394,42 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Serge Ibaka</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>31.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>9.9</t>
         </is>
       </c>
     </row>
@@ -5914,42 +5914,42 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>22.1%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -5979,42 +5979,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>22.1%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,17 +6024,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Maurice Harkless</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6314,12 +6314,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6329,17 +6329,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>33.1%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>32.7</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-8.6</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Maurice Harkless</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6379,12 +6379,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6394,17 +6394,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>33.1%</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6414,17 +6414,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>32.7</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-8.6</t>
         </is>
       </c>
     </row>
@@ -6434,17 +6434,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ersan Ilyasova</t>
+          <t>Jon Leuer</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6454,22 +6454,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>29.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>34.5</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>-35.8</t>
         </is>
       </c>
     </row>
@@ -6499,42 +6499,42 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Ersan Ilyasova</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>32.6%</t>
+          <t>29.0%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>34.5</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-14.5</t>
         </is>
       </c>
     </row>
@@ -6564,42 +6564,42 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Thon Maker</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>32.4%</t>
+          <t>32.6%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>34.8</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jon Leuer</t>
+          <t>Thon Maker</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6649,22 +6649,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>32.4%</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>-35.8</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -6759,22 +6759,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>D.J. Augustin</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>16.3%</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6824,17 +6824,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>D.J. Augustin</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6854,12 +6854,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>29.8%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-10.1</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -6889,22 +6889,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6919,12 +6919,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>16.3%</t>
+          <t>29.8%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-10.1</t>
         </is>
       </c>
     </row>
@@ -7084,42 +7084,42 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>26.4%</t>
+          <t>32.8%</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7129,17 +7129,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-16.3</t>
+          <t>12.8</t>
         </is>
       </c>
     </row>
@@ -7149,42 +7149,42 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>32.8%</t>
+          <t>26.4%</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7194,17 +7194,17 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>-16.3</t>
         </is>
       </c>
     </row>
@@ -7344,42 +7344,42 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Evan Turner</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>32.2%</t>
+          <t>23.6%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7389,17 +7389,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>17.9</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-17.3</t>
+          <t>17.3</t>
         </is>
       </c>
     </row>
@@ -7409,42 +7409,42 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Evan Turner</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>23.6%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7454,17 +7454,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>-17.3</t>
         </is>
       </c>
     </row>
@@ -7539,22 +7539,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Darren Collison</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>21.3%</t>
+          <t>25.6%</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7584,17 +7584,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>23.7</t>
         </is>
       </c>
     </row>
@@ -7604,17 +7604,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Iman Shumpert</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -7624,22 +7624,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>24.7</t>
         </is>
       </c>
     </row>
@@ -7669,17 +7669,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Darren Collison</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -7689,22 +7689,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>25.6%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>33.7</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>23.7</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Aron Baynes</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7754,22 +7754,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-15.5</t>
+          <t>-5.0</t>
         </is>
       </c>
     </row>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Aron Baynes</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -7884,22 +7884,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>24.1%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-15.5</t>
         </is>
       </c>
     </row>
@@ -7929,22 +7929,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>21.3%</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>24.7</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -7994,37 +7994,37 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Boban Marjanovic</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>29.4%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8044,12 +8044,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>33.7</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -8059,37 +8059,37 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Boban Marjanovic</t>
+          <t>Iman Shumpert</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>29.4%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8109,12 +8109,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Tyreke Evans</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>39.1%</t>
+          <t>29.0%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8499,12 +8499,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Tyreke Evans</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>29.0%</t>
+          <t>39.1%</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -8774,42 +8774,42 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>T.J. Leaf</t>
+          <t>Alfonzo McKinnie</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>46.8%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-34.0</t>
+          <t>-4.1</t>
         </is>
       </c>
     </row>
@@ -8839,22 +8839,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Joe Harris</t>
+          <t>Nerlens Noel</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -8864,37 +8864,37 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>38.8</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
           <t>1.2</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>39.0</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -8904,17 +8904,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Alfonzo McKinnie</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -8924,17 +8924,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8949,17 +8949,17 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-6.0</t>
         </is>
       </c>
     </row>
@@ -8969,22 +8969,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Joe Harris</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -8994,17 +8994,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>27.8%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -9034,42 +9034,42 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nerlens Noel</t>
+          <t>T.J. Leaf</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>23.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9079,17 +9079,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>38.8</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-34.0</t>
         </is>
       </c>
     </row>
@@ -9229,42 +9229,42 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mason Plumlee</t>
+          <t>Marco Belinelli</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>28.3%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>-13.2</t>
         </is>
       </c>
     </row>
@@ -9294,42 +9294,42 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Marco Belinelli</t>
+          <t>Mason Plumlee</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>28.3%</t>
+          <t>17.3%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>23.1</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-13.2</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -9879,22 +9879,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Ed Davis</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9929,12 +9929,12 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>34.8</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-14.8</t>
+          <t>-13.0</t>
         </is>
       </c>
     </row>
@@ -9944,22 +9944,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ed Davis</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -9969,12 +9969,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>14.7%</t>
+          <t>83.3%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9994,12 +9994,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-14.8</t>
         </is>
       </c>
     </row>
@@ -10074,17 +10074,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Wes Iwundu</t>
+          <t>Jonathon Simmons</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -10104,12 +10104,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>72.7%</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-24.9</t>
+          <t>31.4</t>
         </is>
       </c>
     </row>
@@ -10139,22 +10139,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Derrick Favors</t>
+          <t>Wes Iwundu</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -10189,12 +10189,12 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-24.2</t>
+          <t>-24.9</t>
         </is>
       </c>
     </row>
@@ -10204,22 +10204,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Jonathon Simmons</t>
+          <t>Derrick Favors</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>72.7%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>-24.2</t>
         </is>
       </c>
     </row>
@@ -10334,22 +10334,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Melvin Frazier Jr.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -10364,12 +10364,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-32.3</t>
         </is>
       </c>
     </row>
@@ -10399,22 +10399,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -10449,12 +10449,12 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -10464,12 +10464,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Melvin Frazier Jr.</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -10479,27 +10479,27 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-32.3</t>
+          <t>-15.2</t>
         </is>
       </c>
     </row>
@@ -10529,22 +10529,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ekpe Udoh</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -10579,12 +10579,12 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -10594,42 +10594,42 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Ekpe Udoh</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>23.1%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-15.2</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Quincy Pondexter</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -10799,12 +10799,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -10819,12 +10819,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-32.9</t>
         </is>
       </c>
     </row>
@@ -10854,22 +10854,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Glenn Robinson III</t>
+          <t>Quincy Pondexter</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -10884,12 +10884,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>33.2</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-33.2</t>
+          <t>-14.0</t>
         </is>
       </c>
     </row>
@@ -10919,22 +10919,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Lonnie Walker IV</t>
+          <t>Glenn Robinson III</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>36.4%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -10969,12 +10969,12 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>33.2</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-32.9</t>
+          <t>-33.2</t>
         </is>
       </c>
     </row>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Jonah Bolden</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -11514,12 +11514,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -11529,17 +11529,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-15.5</t>
+          <t>7.2</t>
         </is>
       </c>
     </row>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Jonah Bolden</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -11579,12 +11579,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -11594,17 +11594,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>34.5%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>-15.5</t>
         </is>
       </c>
     </row>
@@ -11634,42 +11634,42 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-34.2</t>
+          <t>22.3</t>
         </is>
       </c>
     </row>
@@ -11699,37 +11699,37 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Greg Monroe</t>
+          <t>Donatas Motiejunas</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>12.7%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -11764,42 +11764,42 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Jerian Grant</t>
+          <t>Greg Monroe</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>12.7%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-33.9</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -11829,17 +11829,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Zhaire Smith</t>
+          <t>Jerian Grant</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -11849,17 +11849,17 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -11879,12 +11879,12 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>-40.7</t>
+          <t>-33.9</t>
         </is>
       </c>
     </row>
@@ -11894,42 +11894,42 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Donatas Motiejunas</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>67.4</t>
         </is>
       </c>
     </row>
@@ -11959,22 +11959,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Skal Labissiere</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -12009,12 +12009,12 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-34.0</t>
+          <t>-34.2</t>
         </is>
       </c>
     </row>
@@ -12024,62 +12024,62 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>26.7%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>15.9</t>
         </is>
       </c>
     </row>
@@ -12089,42 +12089,42 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>Zhaire Smith</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,17 +12134,17 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>-40.7</t>
         </is>
       </c>
     </row>
@@ -12154,42 +12154,42 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Skal Labissiere</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>26.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12199,17 +12199,17 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>-34.0</t>
         </is>
       </c>
     </row>
@@ -12219,22 +12219,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Deonte Burton</t>
+          <t>Gary Clark</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -12249,12 +12249,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-35.5</t>
+          <t>61.6</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Gary Clark</t>
+          <t>Deonte Burton</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -12314,32 +12314,32 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>-35.5</t>
         </is>
       </c>
     </row>
@@ -12544,12 +12544,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Amir Johnson</t>
+          <t>Jonas Jerebko</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -12559,27 +12559,27 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>19.6%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>-25.9</t>
         </is>
       </c>
     </row>
@@ -12609,12 +12609,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Jonas Jerebko</t>
+          <t>Amir Johnson</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -12624,27 +12624,27 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>19.6%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-25.9</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -12739,42 +12739,42 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Kenneth Faried</t>
+          <t>Theo Pinson</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>17.4%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12784,17 +12784,17 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>-29.6</t>
         </is>
       </c>
     </row>
@@ -12804,42 +12804,42 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Jacob Evans</t>
+          <t>Malcolm Miller</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-9.0</t>
         </is>
       </c>
     </row>
@@ -12869,42 +12869,42 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Malcolm Miller</t>
+          <t>Jacob Evans</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-37.0</t>
         </is>
       </c>
     </row>
@@ -12934,42 +12934,42 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Theo Pinson</t>
+          <t>Kenneth Faried</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>22.2%</t>
+          <t>17.4%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-29.6</t>
+          <t>-10.7</t>
         </is>
       </c>
     </row>
@@ -13129,22 +13129,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Dante Cunningham</t>
+          <t>Tyrone Wallace</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -13179,12 +13179,12 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>29.4</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>70.6</t>
         </is>
       </c>
     </row>
@@ -13194,17 +13194,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jose Calderon</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13244,12 +13244,12 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>59.7</t>
         </is>
       </c>
     </row>
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tyrone Wallace</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -13289,32 +13289,32 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>-38.0</t>
         </is>
       </c>
     </row>
@@ -13324,17 +13324,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Dante Cunningham</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -13359,7 +13359,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13369,17 +13369,17 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-32.3</t>
+          <t>59.7</t>
         </is>
       </c>
     </row>
@@ -13454,22 +13454,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Damian Jones</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -13504,12 +13504,12 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-37.9</t>
+          <t>-32.3</t>
         </is>
       </c>
     </row>
@@ -13519,17 +13519,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Jose Calderon</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13569,12 +13569,12 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>62.6</t>
         </is>
       </c>
     </row>
@@ -13584,17 +13584,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Zaza Pachulia</t>
+          <t>Damian Jones</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -13614,7 +13614,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-35.6</t>
+          <t>-37.9</t>
         </is>
       </c>
     </row>
@@ -13649,22 +13649,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Zaza Pachulia</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -13679,7 +13679,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>11.1%</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -13699,12 +13699,12 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>-38.0</t>
+          <t>-35.6</t>
         </is>
       </c>
     </row>
@@ -13714,12 +13714,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Khyri Thomas</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -13744,12 +13744,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -13759,17 +13759,17 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>33.5</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>-33.5</t>
+          <t>64.3</t>
         </is>
       </c>
     </row>
@@ -13779,12 +13779,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Khyri Thomas</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -13809,32 +13809,32 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>33.5</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>-33.5</t>
         </is>
       </c>
     </row>
